--- a/src/NFA031_Mod3_ExoProp4_TracerQueFaitLeProg.xlsx
+++ b/src/NFA031_Mod3_ExoProp4_TracerQueFaitLeProg.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i068904\workspace\CNAM\NFA031_original\src\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14490" windowHeight="5010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
   <si>
     <t>i</t>
   </si>
@@ -472,10 +468,10 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
@@ -530,7 +526,9 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="H2" s="5">
         <v>2</v>
       </c>
@@ -555,8 +553,12 @@
       <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="5">
+        <v>2</v>
+      </c>
       <c r="I3" s="5" t="s">
         <v>3</v>
       </c>
@@ -589,7 +591,7 @@
         <v>6</v>
       </c>
       <c r="I4" s="5" t="str">
-        <f>_xlfn.CONCAT("r numero ",A4," vaut : ",H4)</f>
+        <f t="shared" ref="I4:I10" si="0">_xlfn.CONCAT("r numero ",A4," vaut : ",H4)</f>
         <v>r numero 0 vaut : 6</v>
       </c>
     </row>
@@ -599,7 +601,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="4">
-        <f t="shared" ref="B5:B10" si="0">MOD(A5,3)</f>
+        <f t="shared" ref="B5:B10" si="1">MOD(A5,3)</f>
         <v>1</v>
       </c>
       <c r="C5" s="4" t="b">
@@ -622,17 +624,17 @@
         <v>11</v>
       </c>
       <c r="I5" s="5" t="str">
-        <f>_xlfn.CONCAT("r numero ",A5," vaut : ",H5)</f>
+        <f t="shared" si="0"/>
         <v>r numero 1 vaut : 11</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <f t="shared" ref="A6:A10" si="1">A5+1</f>
+        <f t="shared" ref="A6:A10" si="2">A5+1</f>
         <v>2</v>
       </c>
       <c r="B6" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C6" s="4" t="b">
@@ -655,17 +657,17 @@
         <v>33</v>
       </c>
       <c r="I6" s="5" t="str">
-        <f>_xlfn.CONCAT("r numero ",A6," vaut : ",H6)</f>
+        <f t="shared" si="0"/>
         <v>r numero 2 vaut : 33</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="4">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="B7" s="4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C7" s="4" t="b">
@@ -688,17 +690,17 @@
         <v>99</v>
       </c>
       <c r="I7" s="5" t="str">
-        <f>_xlfn.CONCAT("r numero ",A7," vaut : ",H7)</f>
+        <f t="shared" si="0"/>
         <v>r numero 3 vaut : 99</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="B8" s="4">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C8" s="4" t="b">
@@ -721,17 +723,17 @@
         <v>104</v>
       </c>
       <c r="I8" s="5" t="str">
-        <f>_xlfn.CONCAT("r numero ",A8," vaut : ",H8)</f>
+        <f t="shared" si="0"/>
         <v>r numero 4 vaut : 104</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B9" s="4">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C9" s="4" t="b">
@@ -754,17 +756,17 @@
         <v>109</v>
       </c>
       <c r="I9" s="5" t="str">
-        <f>_xlfn.CONCAT("r numero ",A9," vaut : ",H9)</f>
+        <f t="shared" si="0"/>
         <v>r numero 5 vaut : 109</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="4">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B10" s="4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C10" s="4" t="b">
@@ -787,7 +789,7 @@
         <v>114</v>
       </c>
       <c r="I10" s="5" t="str">
-        <f>_xlfn.CONCAT("r numero ",A10," vaut : ",H10)</f>
+        <f t="shared" si="0"/>
         <v>r numero 6 vaut : 114</v>
       </c>
     </row>
